--- a/Code/Demographic_data(metadata).xlsx
+++ b/Code/Demographic_data(metadata).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\UNIVERSIDAD\MASTER UOC BIOINFORMATICA\TFM\TFM_Borrador\Entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D807CF90-B7F7-4708-B8A4-D5F7C1711B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE1639-7704-46A8-B0F2-A2365C8366B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{80EFE0F8-FAFF-4490-BCC1-FB5EDA35CDA6}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -699,22 +699,22 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>33</v>
       </c>
       <c r="I3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1">
         <v>17</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>
@@ -734,13 +734,13 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -749,18 +749,18 @@
         <v>34</v>
       </c>
       <c r="I4" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1">
         <v>16</v>
       </c>
       <c r="K4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
@@ -772,30 +772,30 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -804,33 +804,33 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F6" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -841,31 +841,27 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -874,23 +870,19 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>17</v>
       </c>
@@ -899,8 +891,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -909,33 +901,33 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -944,33 +936,33 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
+      <c r="A11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -979,33 +971,33 @@
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+      <c r="A12" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -1014,29 +1006,33 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>78</v>
+      </c>
       <c r="F12" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9</v>
+      </c>
       <c r="J12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
+      <c r="A13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1045,29 +1041,33 @@
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>76</v>
+      </c>
       <c r="F13" s="1">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>44</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
       <c r="J13" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -1079,30 +1079,30 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I14" s="1">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1">
         <v>15</v>
       </c>
-      <c r="J14" s="1">
-        <v>17</v>
-      </c>
       <c r="K14" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
+      <c r="A15" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -1111,28 +1111,28 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1">
         <v>18</v>
-      </c>
-      <c r="K15" s="1">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1168,7 +1168,7 @@
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -1177,29 +1177,26 @@
         <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
         <v>17</v>
       </c>
       <c r="K17" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1210,31 +1207,27 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <v>78</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
       </c>
       <c r="H18">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -1246,30 +1239,30 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K19" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -1281,30 +1274,30 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>33</v>
       </c>
       <c r="I20" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K20" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -1315,24 +1308,31 @@
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>69</v>
+      </c>
       <c r="F21" s="1">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4</v>
+      </c>
       <c r="J21" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K21" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -1345,25 +1345,25 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>33</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K22" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -1375,30 +1375,30 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F23" s="1">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K23" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
@@ -1410,30 +1410,30 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -1442,13 +1442,11 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>69</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
@@ -1456,11 +1454,9 @@
       <c r="H25">
         <v>33</v>
       </c>
-      <c r="I25" s="1">
-        <v>4</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K25" s="1">
         <v>30</v>
@@ -1468,7 +1464,7 @@
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -1479,27 +1475,31 @@
       <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1">
+        <v>78</v>
+      </c>
       <c r="F26" s="1">
         <v>81</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
       <c r="J26" s="1">
         <v>17</v>
       </c>
       <c r="K26" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -1511,22 +1511,22 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" s="1">
         <v>27</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -1546,25 +1546,25 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I28" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K28" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
